--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.04649666666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.13949</v>
+      </c>
+      <c r="I2">
+        <v>0.01142756306255085</v>
+      </c>
+      <c r="J2">
+        <v>0.01231108303727984</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2.767962666666667</v>
-      </c>
-      <c r="H2">
-        <v>8.303888000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.6703478441031137</v>
-      </c>
-      <c r="J2">
-        <v>0.717797521317681</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3341516666666666</v>
+        <v>0.363908</v>
       </c>
       <c r="N2">
-        <v>1.002455</v>
+        <v>1.091724</v>
       </c>
       <c r="O2">
-        <v>0.02354483703663662</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P2">
-        <v>0.03467746452042096</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q2">
-        <v>0.9249193383377777</v>
+        <v>0.01692050897333333</v>
       </c>
       <c r="R2">
-        <v>8.324274045039999</v>
+        <v>0.15228458076</v>
       </c>
       <c r="S2">
-        <v>0.0157832307472685</v>
+        <v>0.0001278712372306696</v>
       </c>
       <c r="T2">
-        <v>0.02489139807833999</v>
+        <v>0.0002047659943835255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.767962666666667</v>
+        <v>0.04649666666666667</v>
       </c>
       <c r="H3">
-        <v>8.303888000000001</v>
+        <v>0.13949</v>
       </c>
       <c r="I3">
-        <v>0.6703478441031137</v>
+        <v>0.01142756306255085</v>
       </c>
       <c r="J3">
-        <v>0.717797521317681</v>
+        <v>0.01231108303727984</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,25 +623,25 @@
         <v>0.153566</v>
       </c>
       <c r="N3">
-        <v>0.4606979999999999</v>
+        <v>0.460698</v>
       </c>
       <c r="O3">
-        <v>0.01082049501783563</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P3">
-        <v>0.01593671391696275</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q3">
-        <v>0.4250649548693333</v>
+        <v>0.007140307113333333</v>
       </c>
       <c r="R3">
-        <v>3.825584593824</v>
+        <v>0.06426276402</v>
       </c>
       <c r="S3">
-        <v>0.007253495507334598</v>
+        <v>5.396054611760393E-05</v>
       </c>
       <c r="T3">
-        <v>0.01143933374754485</v>
+        <v>8.640946253860999E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.767962666666667</v>
+        <v>0.04649666666666667</v>
       </c>
       <c r="H4">
-        <v>8.303888000000001</v>
+        <v>0.13949</v>
       </c>
       <c r="I4">
-        <v>0.6703478441031137</v>
+        <v>0.01142756306255085</v>
       </c>
       <c r="J4">
-        <v>0.717797521317681</v>
+        <v>0.01231108303727984</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.6684585</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N4">
-        <v>27.336917</v>
+        <v>0.187586</v>
       </c>
       <c r="O4">
-        <v>0.9631004721145509</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P4">
-        <v>0.9456533902920258</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q4">
-        <v>37.83378283888267</v>
+        <v>0.002907374571111111</v>
       </c>
       <c r="R4">
-        <v>227.002697033296</v>
+        <v>0.02616637114</v>
       </c>
       <c r="S4">
-        <v>0.6456123251366801</v>
+        <v>2.197153667699197E-05</v>
       </c>
       <c r="T4">
-        <v>0.6787876595772777</v>
+        <v>3.518401521119626E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.767962666666667</v>
+        <v>0.04649666666666667</v>
       </c>
       <c r="H5">
-        <v>8.303888000000001</v>
+        <v>0.13949</v>
       </c>
       <c r="I5">
-        <v>0.6703478441031137</v>
+        <v>0.01142756306255085</v>
       </c>
       <c r="J5">
-        <v>0.717797521317681</v>
+        <v>0.01231108303727984</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03596566666666667</v>
+        <v>31.927516</v>
       </c>
       <c r="N5">
-        <v>0.107897</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O5">
-        <v>0.002534195830976933</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P5">
-        <v>0.003732431270590561</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q5">
-        <v>0.09955162261511112</v>
+        <v>1.484523068946666</v>
       </c>
       <c r="R5">
-        <v>0.8959646035360002</v>
+        <v>8.90713841368</v>
       </c>
       <c r="S5">
-        <v>0.001698792711830486</v>
+        <v>0.01121879973131121</v>
       </c>
       <c r="T5">
-        <v>0.002679129914518508</v>
+        <v>0.0119767808749023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1393433333333333</v>
+        <v>0.04649666666666667</v>
       </c>
       <c r="H6">
-        <v>0.41803</v>
+        <v>0.13949</v>
       </c>
       <c r="I6">
-        <v>0.03374630164453381</v>
+        <v>0.01142756306255085</v>
       </c>
       <c r="J6">
-        <v>0.03613498855432903</v>
+        <v>0.01231108303727984</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3341516666666666</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N6">
-        <v>1.002455</v>
+        <v>0.042347</v>
       </c>
       <c r="O6">
-        <v>0.02354483703663662</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P6">
-        <v>0.03467746452042096</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q6">
-        <v>0.04656180707222222</v>
+        <v>0.0006563314477777778</v>
       </c>
       <c r="R6">
-        <v>0.41905626365</v>
+        <v>0.00590698303</v>
       </c>
       <c r="S6">
-        <v>0.0007945511728097312</v>
+        <v>4.960011214379427E-06</v>
       </c>
       <c r="T6">
-        <v>0.001253069783538563</v>
+        <v>7.942690244200143E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1393433333333333</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H7">
-        <v>0.41803</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I7">
-        <v>0.03374630164453381</v>
+        <v>0.680286786037417</v>
       </c>
       <c r="J7">
-        <v>0.03613498855432903</v>
+        <v>0.7328830360618797</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.153566</v>
+        <v>0.363908</v>
       </c>
       <c r="N7">
-        <v>0.4606979999999999</v>
+        <v>1.091724</v>
       </c>
       <c r="O7">
-        <v>0.01082049501783563</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P7">
-        <v>0.01593671391696275</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q7">
-        <v>0.02139839832666666</v>
+        <v>1.007283758101333</v>
       </c>
       <c r="R7">
-        <v>0.19258558494</v>
+        <v>9.065553822911999</v>
       </c>
       <c r="S7">
-        <v>0.0003651516888150565</v>
+        <v>0.007612219029212923</v>
       </c>
       <c r="T7">
-        <v>0.0005758729749830653</v>
+        <v>0.01218979054820722</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1393433333333333</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H8">
-        <v>0.41803</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I8">
-        <v>0.03374630164453381</v>
+        <v>0.680286786037417</v>
       </c>
       <c r="J8">
-        <v>0.03613498855432903</v>
+        <v>0.7328830360618797</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>13.6684585</v>
+        <v>0.153566</v>
       </c>
       <c r="N8">
-        <v>27.336917</v>
+        <v>0.460698</v>
       </c>
       <c r="O8">
-        <v>0.9631004721145509</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P8">
-        <v>0.9456533902920258</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q8">
-        <v>1.904608568918333</v>
+        <v>0.4250649548693334</v>
       </c>
       <c r="R8">
-        <v>11.42765141351</v>
+        <v>3.825584593824</v>
       </c>
       <c r="S8">
-        <v>0.03250107904597056</v>
+        <v>0.003212289994834167</v>
       </c>
       <c r="T8">
-        <v>0.0341711744345648</v>
+        <v>0.00514398522518326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1393433333333333</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H9">
-        <v>0.41803</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I9">
-        <v>0.03374630164453381</v>
+        <v>0.680286786037417</v>
       </c>
       <c r="J9">
-        <v>0.03613498855432903</v>
+        <v>0.7328830360618797</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,122 +992,122 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03596566666666667</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N9">
-        <v>0.107897</v>
+        <v>0.187586</v>
       </c>
       <c r="O9">
-        <v>0.002534195830976933</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P9">
-        <v>0.003732431270590561</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q9">
-        <v>0.00501157587888889</v>
+        <v>0.1730770149297778</v>
       </c>
       <c r="R9">
-        <v>0.04510418291000001</v>
+        <v>1.557693134368</v>
       </c>
       <c r="S9">
-        <v>8.551973693846763E-05</v>
+        <v>0.001307973186275959</v>
       </c>
       <c r="T9">
-        <v>0.0001348713612426097</v>
+        <v>0.0020945166083882</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8188655</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H10">
-        <v>1.637731</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I10">
-        <v>0.1983136294235007</v>
+        <v>0.680286786037417</v>
       </c>
       <c r="J10">
-        <v>0.1415673299525628</v>
+        <v>0.7328830360618797</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3341516666666666</v>
+        <v>31.927516</v>
       </c>
       <c r="N10">
-        <v>1.002455</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O10">
-        <v>0.02354483703663662</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P10">
-        <v>0.03467746452042096</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q10">
-        <v>0.2736252716008333</v>
+        <v>88.37417232740268</v>
       </c>
       <c r="R10">
-        <v>1.641751629605</v>
+        <v>530.2450339644159</v>
       </c>
       <c r="S10">
-        <v>0.00466926208692027</v>
+        <v>0.6678590326420416</v>
       </c>
       <c r="T10">
-        <v>0.004909196061680725</v>
+        <v>0.7129819125796167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8188655</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H11">
-        <v>1.637731</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I11">
-        <v>0.1983136294235007</v>
+        <v>0.680286786037417</v>
       </c>
       <c r="J11">
-        <v>0.1415673299525628</v>
+        <v>0.7328830360618797</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.153566</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N11">
-        <v>0.4606979999999999</v>
+        <v>0.042347</v>
       </c>
       <c r="O11">
-        <v>0.01082049501783563</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P11">
-        <v>0.01593671391696275</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q11">
-        <v>0.125749899373</v>
+        <v>0.03907163834844445</v>
       </c>
       <c r="R11">
-        <v>0.7544993962379999</v>
+        <v>0.351644745136</v>
       </c>
       <c r="S11">
-        <v>0.002145851639145891</v>
+        <v>0.000295271185052339</v>
       </c>
       <c r="T11">
-        <v>0.002256118037442266</v>
+        <v>0.0004728311004841253</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.8188655</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H12">
-        <v>1.637731</v>
+        <v>0.53108</v>
       </c>
       <c r="I12">
-        <v>0.1983136294235007</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J12">
-        <v>0.1415673299525628</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.6684585</v>
+        <v>0.363908</v>
       </c>
       <c r="N12">
-        <v>27.336917</v>
+        <v>1.091724</v>
       </c>
       <c r="O12">
-        <v>0.9631004721145509</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P12">
-        <v>0.9456533902920258</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q12">
-        <v>11.19262910383175</v>
+        <v>0.06442142021333333</v>
       </c>
       <c r="R12">
-        <v>44.770516415327</v>
+        <v>0.5797927819199999</v>
       </c>
       <c r="S12">
-        <v>0.1909959501245236</v>
+        <v>0.0004868439075809306</v>
       </c>
       <c r="T12">
-        <v>0.1338736255242309</v>
+        <v>0.0007796051637909724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.8188655</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H13">
-        <v>1.637731</v>
+        <v>0.53108</v>
       </c>
       <c r="I13">
-        <v>0.1983136294235007</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J13">
-        <v>0.1415673299525628</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,42 +1240,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03596566666666667</v>
+        <v>0.153566</v>
       </c>
       <c r="N13">
-        <v>0.107897</v>
+        <v>0.460698</v>
       </c>
       <c r="O13">
-        <v>0.002534195830976933</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P13">
-        <v>0.003732431270590561</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q13">
-        <v>0.02945104361783333</v>
+        <v>0.02718527709333333</v>
       </c>
       <c r="R13">
-        <v>0.176706261707</v>
+        <v>0.24466749384</v>
       </c>
       <c r="S13">
-        <v>0.0005025655729109401</v>
+        <v>0.0002054438800784078</v>
       </c>
       <c r="T13">
-        <v>0.0005283903292089572</v>
+        <v>0.0003289865751308695</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,60 +1284,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4029723333333333</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H14">
-        <v>1.208917</v>
+        <v>0.53108</v>
       </c>
       <c r="I14">
-        <v>0.09759222482885171</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J14">
-        <v>0.1045001601754271</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3341516666666666</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N14">
-        <v>1.002455</v>
+        <v>0.187586</v>
       </c>
       <c r="O14">
-        <v>0.02354483703663662</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P14">
-        <v>0.03467746452042096</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q14">
-        <v>0.1346538768038889</v>
+        <v>0.01106924143111111</v>
       </c>
       <c r="R14">
-        <v>1.211884891235</v>
+        <v>0.09962317288</v>
       </c>
       <c r="S14">
-        <v>0.002297793029638116</v>
+        <v>8.365218795911463E-05</v>
       </c>
       <c r="T14">
-        <v>0.003623800596861681</v>
+        <v>0.0001339560312449789</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,60 +1346,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4029723333333333</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H15">
-        <v>1.208917</v>
+        <v>0.53108</v>
       </c>
       <c r="I15">
-        <v>0.09759222482885171</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J15">
-        <v>0.1045001601754271</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.153566</v>
+        <v>31.927516</v>
       </c>
       <c r="N15">
-        <v>0.4606979999999999</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O15">
-        <v>0.01082049501783563</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P15">
-        <v>0.01593671391696275</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q15">
-        <v>0.06188284934066666</v>
+        <v>5.652021732426666</v>
       </c>
       <c r="R15">
-        <v>0.5569456440659999</v>
+        <v>33.91213039455999</v>
       </c>
       <c r="S15">
-        <v>0.001055996182540085</v>
+        <v>0.04271331393866769</v>
       </c>
       <c r="T15">
-        <v>0.001665389156992566</v>
+        <v>0.045599174041459</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4029723333333333</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H16">
-        <v>1.208917</v>
+        <v>0.53108</v>
       </c>
       <c r="I16">
-        <v>0.09759222482885171</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J16">
-        <v>0.1045001601754271</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>13.6684585</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N16">
-        <v>27.336917</v>
+        <v>0.042347</v>
       </c>
       <c r="O16">
-        <v>0.9631004721145509</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P16">
-        <v>0.9456533902920258</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q16">
-        <v>5.508010614814833</v>
+        <v>0.002498849417777778</v>
       </c>
       <c r="R16">
-        <v>33.048063688889</v>
+        <v>0.02248964476</v>
       </c>
       <c r="S16">
-        <v>0.09399111780737648</v>
+        <v>1.888424084688957E-05</v>
       </c>
       <c r="T16">
-        <v>0.09882093075595237</v>
+        <v>3.024018879410576E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.876011</v>
+      </c>
+      <c r="H17">
+        <v>1.752022</v>
+      </c>
+      <c r="I17">
+        <v>0.2152986797473991</v>
+      </c>
+      <c r="J17">
+        <v>0.1546296388640124</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.363908</v>
+      </c>
+      <c r="N17">
+        <v>1.091724</v>
+      </c>
+      <c r="O17">
+        <v>0.01118972054940699</v>
+      </c>
+      <c r="P17">
+        <v>0.01663265480083782</v>
+      </c>
+      <c r="Q17">
+        <v>0.318787410988</v>
+      </c>
+      <c r="R17">
+        <v>1.912724465928</v>
+      </c>
+      <c r="S17">
+        <v>0.002409132061029667</v>
+      </c>
+      <c r="T17">
+        <v>0.002571901405203335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.876011</v>
+      </c>
+      <c r="H18">
+        <v>1.752022</v>
+      </c>
+      <c r="I18">
+        <v>0.2152986797473991</v>
+      </c>
+      <c r="J18">
+        <v>0.1546296388640124</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.153566</v>
+      </c>
+      <c r="N18">
+        <v>0.460698</v>
+      </c>
+      <c r="O18">
+        <v>0.004721964413781051</v>
+      </c>
+      <c r="P18">
+        <v>0.007018835164781924</v>
+      </c>
+      <c r="Q18">
+        <v>0.134525505226</v>
+      </c>
+      <c r="R18">
+        <v>0.807153031356</v>
+      </c>
+      <c r="S18">
+        <v>0.001016632704101262</v>
+      </c>
+      <c r="T18">
+        <v>0.00108531994677626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.876011</v>
+      </c>
+      <c r="H19">
+        <v>1.752022</v>
+      </c>
+      <c r="I19">
+        <v>0.2152986797473991</v>
+      </c>
+      <c r="J19">
+        <v>0.1546296388640124</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.187586</v>
+      </c>
+      <c r="O19">
+        <v>0.001922679101110775</v>
+      </c>
+      <c r="P19">
+        <v>0.002857913889838424</v>
+      </c>
+      <c r="Q19">
+        <v>0.05477579981533333</v>
+      </c>
+      <c r="R19">
+        <v>0.328654798892</v>
+      </c>
+      <c r="S19">
+        <v>0.0004139502720470661</v>
+      </c>
+      <c r="T19">
+        <v>0.0004419181926901605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.876011</v>
+      </c>
+      <c r="H20">
+        <v>1.752022</v>
+      </c>
+      <c r="I20">
+        <v>0.2152986797473991</v>
+      </c>
+      <c r="J20">
+        <v>0.1546296388640124</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>31.927516</v>
+      </c>
+      <c r="N20">
+        <v>63.85503199999999</v>
+      </c>
+      <c r="O20">
+        <v>0.9817315966582778</v>
+      </c>
+      <c r="P20">
+        <v>0.9728454303033116</v>
+      </c>
+      <c r="Q20">
+        <v>27.968855218676</v>
+      </c>
+      <c r="R20">
+        <v>111.875420874704</v>
+      </c>
+      <c r="S20">
+        <v>0.2113655166268334</v>
+      </c>
+      <c r="T20">
+        <v>0.1504307375583059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.876011</v>
+      </c>
+      <c r="H21">
+        <v>1.752022</v>
+      </c>
+      <c r="I21">
+        <v>0.2152986797473991</v>
+      </c>
+      <c r="J21">
+        <v>0.1546296388640124</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.042347</v>
+      </c>
+      <c r="O21">
+        <v>0.0004340392774233579</v>
+      </c>
+      <c r="P21">
+        <v>0.0006451658412300904</v>
+      </c>
+      <c r="Q21">
+        <v>0.01236547927233333</v>
+      </c>
+      <c r="R21">
+        <v>0.074192875634</v>
+      </c>
+      <c r="S21">
+        <v>9.344808338776405E-05</v>
+      </c>
+      <c r="T21">
+        <v>9.976176103680566E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.4029723333333333</v>
-      </c>
-      <c r="H17">
-        <v>1.208917</v>
-      </c>
-      <c r="I17">
-        <v>0.09759222482885171</v>
-      </c>
-      <c r="J17">
-        <v>0.1045001601754271</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
+      <c r="G22">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.603961</v>
+      </c>
+      <c r="I22">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J22">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.363908</v>
+      </c>
+      <c r="N22">
+        <v>1.091724</v>
+      </c>
+      <c r="O22">
+        <v>0.01118972054940699</v>
+      </c>
+      <c r="P22">
+        <v>0.01663265480083782</v>
+      </c>
+      <c r="Q22">
+        <v>0.07326207986266665</v>
+      </c>
+      <c r="R22">
+        <v>0.6593587187639999</v>
+      </c>
+      <c r="S22">
+        <v>0.0005536543143528026</v>
+      </c>
+      <c r="T22">
+        <v>0.0008865916892527669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.603961</v>
+      </c>
+      <c r="I23">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J23">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M17">
-        <v>0.03596566666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.107897</v>
-      </c>
-      <c r="O17">
-        <v>0.002534195830976933</v>
-      </c>
-      <c r="P17">
-        <v>0.003732431270590561</v>
-      </c>
-      <c r="Q17">
-        <v>0.01449316861655556</v>
-      </c>
-      <c r="R17">
-        <v>0.130438517549</v>
-      </c>
-      <c r="S17">
-        <v>0.0002473178092970396</v>
-      </c>
-      <c r="T17">
-        <v>0.0003900396656204865</v>
+      <c r="M23">
+        <v>0.153566</v>
+      </c>
+      <c r="N23">
+        <v>0.460698</v>
+      </c>
+      <c r="O23">
+        <v>0.004721964413781051</v>
+      </c>
+      <c r="P23">
+        <v>0.007018835164781924</v>
+      </c>
+      <c r="Q23">
+        <v>0.03091595830866667</v>
+      </c>
+      <c r="R23">
+        <v>0.278243624778</v>
+      </c>
+      <c r="S23">
+        <v>0.0002336372886496106</v>
+      </c>
+      <c r="T23">
+        <v>0.0003741339551529243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.603961</v>
+      </c>
+      <c r="I24">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J24">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.187586</v>
+      </c>
+      <c r="O24">
+        <v>0.001922679101110775</v>
+      </c>
+      <c r="P24">
+        <v>0.002857913889838424</v>
+      </c>
+      <c r="Q24">
+        <v>0.01258829201622222</v>
+      </c>
+      <c r="R24">
+        <v>0.113294628146</v>
+      </c>
+      <c r="S24">
+        <v>9.513191815164348E-05</v>
+      </c>
+      <c r="T24">
+        <v>0.0001523390423038877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.603961</v>
+      </c>
+      <c r="I25">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J25">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.927516</v>
+      </c>
+      <c r="N25">
+        <v>63.85503199999999</v>
+      </c>
+      <c r="O25">
+        <v>0.9817315966582778</v>
+      </c>
+      <c r="P25">
+        <v>0.9728454303033116</v>
+      </c>
+      <c r="Q25">
+        <v>6.427658163625332</v>
+      </c>
+      <c r="R25">
+        <v>38.56594898175199</v>
+      </c>
+      <c r="S25">
+        <v>0.04857493371942397</v>
+      </c>
+      <c r="T25">
+        <v>0.05185682524902767</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.603961</v>
+      </c>
+      <c r="I26">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J26">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.042347</v>
+      </c>
+      <c r="O26">
+        <v>0.0004340392774233579</v>
+      </c>
+      <c r="P26">
+        <v>0.0006451658412300904</v>
+      </c>
+      <c r="Q26">
+        <v>0.002841770718555555</v>
+      </c>
+      <c r="R26">
+        <v>0.025575936467</v>
+      </c>
+      <c r="S26">
+        <v>2.14757569219859E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.439010067085355E-05</v>
       </c>
     </row>
   </sheetData>
